--- a/CorrectionTP3-TP4.xlsx
+++ b/CorrectionTP3-TP4.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="84">
   <si>
     <t>Barême</t>
   </si>
@@ -281,7 +281,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -296,13 +296,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
     <font>
       <b/>
@@ -368,6 +361,22 @@
       <color theme="1"/>
       <name val="Times"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -401,52 +410,55 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -817,7 +829,7 @@
   <dimension ref="A1:J80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -835,94 +847,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="16">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="14" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="13" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="12">
         <f>C23+C34+C44+C58+C69+C80</f>
         <v>0</v>
       </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
     </row>
     <row r="6" spans="1:10" ht="15">
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="13">
+      <c r="C6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="12">
         <f>B23+B34+B44+B58+B69+B80</f>
         <v>80</v>
       </c>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
     </row>
     <row r="9" spans="1:10" ht="18">
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="3" t="s">
+      <c r="C9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="18">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="7">
-        <v>2</v>
-      </c>
-      <c r="C13" s="7"/>
+      <c r="B13" s="6">
+        <v>2</v>
+      </c>
+      <c r="C13" s="6"/>
     </row>
     <row r="14" spans="1:10" ht="15">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="11" t="s">
         <v>14</v>
       </c>
       <c r="B14">
@@ -930,7 +942,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="15">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="11" t="s">
         <v>15</v>
       </c>
       <c r="B15">
@@ -938,7 +950,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="15">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="11" t="s">
         <v>8</v>
       </c>
       <c r="B16">
@@ -946,7 +958,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" ht="15">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="11" t="s">
         <v>9</v>
       </c>
       <c r="B17">
@@ -954,7 +966,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="15">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="11" t="s">
         <v>10</v>
       </c>
       <c r="B18">
@@ -962,7 +974,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" ht="15">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="11" t="s">
         <v>11</v>
       </c>
       <c r="B19">
@@ -970,7 +982,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" ht="15">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="11" t="s">
         <v>47</v>
       </c>
       <c r="B20">
@@ -978,7 +990,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" ht="15">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="11" t="s">
         <v>46</v>
       </c>
       <c r="B21">
@@ -986,18 +998,18 @@
       </c>
     </row>
     <row r="22" spans="1:3" ht="15">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15">
-      <c r="A23" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="B23" s="6">
+      <c r="A23" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" s="5">
         <f>SUM(B13:B22)</f>
         <v>21</v>
       </c>
@@ -1007,17 +1019,17 @@
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="18"/>
+      <c r="A24" s="17"/>
     </row>
     <row r="25" spans="1:3" ht="18">
-      <c r="A25" s="19" t="s">
+      <c r="A25" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
     </row>
     <row r="26" spans="1:3" ht="15">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="11" t="s">
         <v>48</v>
       </c>
       <c r="B26">
@@ -1025,7 +1037,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" ht="15">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="11" t="s">
         <v>14</v>
       </c>
       <c r="B27">
@@ -1033,7 +1045,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" ht="15">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="11" t="s">
         <v>16</v>
       </c>
       <c r="B28">
@@ -1041,7 +1053,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" ht="15">
-      <c r="A29" s="12" t="s">
+      <c r="A29" s="11" t="s">
         <v>17</v>
       </c>
       <c r="B29">
@@ -1049,7 +1061,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" ht="15">
-      <c r="A30" s="12" t="s">
+      <c r="A30" s="11" t="s">
         <v>10</v>
       </c>
       <c r="B30">
@@ -1057,7 +1069,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" ht="15">
-      <c r="A31" s="12" t="s">
+      <c r="A31" s="11" t="s">
         <v>18</v>
       </c>
       <c r="B31">
@@ -1065,7 +1077,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" ht="15">
-      <c r="A32" s="12" t="s">
+      <c r="A32" s="11" t="s">
         <v>19</v>
       </c>
       <c r="B32">
@@ -1073,13 +1085,13 @@
       </c>
     </row>
     <row r="33" spans="1:3" ht="15">
-      <c r="A33" s="16"/>
+      <c r="A33" s="15"/>
     </row>
     <row r="34" spans="1:3" ht="15">
-      <c r="A34" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="B34" s="6">
+      <c r="A34" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B34" s="5">
         <f>SUM(B26:B33)</f>
         <v>17</v>
       </c>
@@ -1089,18 +1101,18 @@
       </c>
     </row>
     <row r="35" spans="1:3" ht="15">
-      <c r="A35" s="17"/>
-      <c r="B35" s="6"/>
+      <c r="A35" s="16"/>
+      <c r="B35" s="5"/>
     </row>
     <row r="36" spans="1:3" ht="18">
-      <c r="A36" s="19" t="s">
+      <c r="A36" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
     </row>
     <row r="37" spans="1:3" ht="15">
-      <c r="A37" s="12" t="s">
+      <c r="A37" s="11" t="s">
         <v>49</v>
       </c>
       <c r="B37">
@@ -1108,7 +1120,7 @@
       </c>
     </row>
     <row r="38" spans="1:3" ht="15">
-      <c r="A38" s="12" t="s">
+      <c r="A38" s="11" t="s">
         <v>14</v>
       </c>
       <c r="B38">
@@ -1116,7 +1128,7 @@
       </c>
     </row>
     <row r="39" spans="1:3" ht="15">
-      <c r="A39" s="12" t="s">
+      <c r="A39" s="11" t="s">
         <v>21</v>
       </c>
       <c r="B39">
@@ -1124,7 +1136,7 @@
       </c>
     </row>
     <row r="40" spans="1:3" ht="15">
-      <c r="A40" s="12" t="s">
+      <c r="A40" s="11" t="s">
         <v>22</v>
       </c>
       <c r="B40">
@@ -1132,7 +1144,7 @@
       </c>
     </row>
     <row r="41" spans="1:3" ht="15">
-      <c r="A41" s="12" t="s">
+      <c r="A41" s="11" t="s">
         <v>10</v>
       </c>
       <c r="B41">
@@ -1140,7 +1152,7 @@
       </c>
     </row>
     <row r="42" spans="1:3" ht="15">
-      <c r="A42" s="12" t="s">
+      <c r="A42" s="11" t="s">
         <v>19</v>
       </c>
       <c r="B42">
@@ -1148,13 +1160,13 @@
       </c>
     </row>
     <row r="43" spans="1:3" ht="15">
-      <c r="A43" s="16"/>
+      <c r="A43" s="15"/>
     </row>
     <row r="44" spans="1:3" ht="15">
-      <c r="A44" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="B44" s="6">
+      <c r="A44" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B44" s="5">
         <f>SUM(B37:B43)</f>
         <v>12</v>
       </c>
@@ -1164,18 +1176,18 @@
       </c>
     </row>
     <row r="45" spans="1:3" ht="15">
-      <c r="A45" s="17"/>
-      <c r="B45" s="6"/>
+      <c r="A45" s="16"/>
+      <c r="B45" s="5"/>
     </row>
     <row r="46" spans="1:3" ht="18">
-      <c r="A46" s="19" t="s">
+      <c r="A46" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
     </row>
     <row r="47" spans="1:3" ht="15">
-      <c r="A47" s="12" t="s">
+      <c r="A47" s="11" t="s">
         <v>24</v>
       </c>
       <c r="B47">
@@ -1183,7 +1195,7 @@
       </c>
     </row>
     <row r="48" spans="1:3" ht="15">
-      <c r="A48" s="12" t="s">
+      <c r="A48" s="11" t="s">
         <v>23</v>
       </c>
       <c r="B48">
@@ -1191,7 +1203,7 @@
       </c>
     </row>
     <row r="49" spans="1:3" ht="15">
-      <c r="A49" s="12" t="s">
+      <c r="A49" s="11" t="s">
         <v>25</v>
       </c>
       <c r="B49">
@@ -1199,7 +1211,7 @@
       </c>
     </row>
     <row r="50" spans="1:3" ht="15">
-      <c r="A50" s="12" t="s">
+      <c r="A50" s="11" t="s">
         <v>26</v>
       </c>
       <c r="B50">
@@ -1207,7 +1219,7 @@
       </c>
     </row>
     <row r="51" spans="1:3" ht="15">
-      <c r="A51" s="12" t="s">
+      <c r="A51" s="11" t="s">
         <v>27</v>
       </c>
       <c r="B51">
@@ -1215,7 +1227,7 @@
       </c>
     </row>
     <row r="52" spans="1:3" ht="15">
-      <c r="A52" s="12" t="s">
+      <c r="A52" s="11" t="s">
         <v>28</v>
       </c>
       <c r="B52">
@@ -1223,7 +1235,7 @@
       </c>
     </row>
     <row r="53" spans="1:3" ht="15">
-      <c r="A53" s="12" t="s">
+      <c r="A53" s="11" t="s">
         <v>29</v>
       </c>
       <c r="B53">
@@ -1231,7 +1243,7 @@
       </c>
     </row>
     <row r="54" spans="1:3" ht="15">
-      <c r="A54" s="12" t="s">
+      <c r="A54" s="11" t="s">
         <v>30</v>
       </c>
       <c r="B54">
@@ -1239,7 +1251,7 @@
       </c>
     </row>
     <row r="55" spans="1:3" ht="15">
-      <c r="A55" s="12" t="s">
+      <c r="A55" s="11" t="s">
         <v>50</v>
       </c>
       <c r="B55">
@@ -1247,7 +1259,7 @@
       </c>
     </row>
     <row r="56" spans="1:3" ht="15">
-      <c r="A56" s="12" t="s">
+      <c r="A56" s="11" t="s">
         <v>51</v>
       </c>
       <c r="B56">
@@ -1255,7 +1267,7 @@
       </c>
     </row>
     <row r="57" spans="1:3" ht="15">
-      <c r="A57" s="12" t="s">
+      <c r="A57" s="11" t="s">
         <v>52</v>
       </c>
       <c r="B57">
@@ -1263,10 +1275,10 @@
       </c>
     </row>
     <row r="58" spans="1:3" ht="15">
-      <c r="A58" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="B58" s="6">
+      <c r="A58" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B58" s="5">
         <f>SUM(B47:B57)</f>
         <v>14</v>
       </c>
@@ -1276,17 +1288,17 @@
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="18"/>
+      <c r="A59" s="17"/>
     </row>
     <row r="60" spans="1:3" ht="18">
-      <c r="A60" s="19" t="s">
+      <c r="A60" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="B60" s="3"/>
-      <c r="C60" s="3"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
     </row>
     <row r="61" spans="1:3" ht="15">
-      <c r="A61" s="12" t="s">
+      <c r="A61" s="11" t="s">
         <v>34</v>
       </c>
       <c r="B61">
@@ -1294,7 +1306,7 @@
       </c>
     </row>
     <row r="62" spans="1:3" ht="15">
-      <c r="A62" s="12" t="s">
+      <c r="A62" s="11" t="s">
         <v>35</v>
       </c>
       <c r="B62">
@@ -1302,7 +1314,7 @@
       </c>
     </row>
     <row r="63" spans="1:3" ht="15">
-      <c r="A63" s="12" t="s">
+      <c r="A63" s="11" t="s">
         <v>36</v>
       </c>
       <c r="B63">
@@ -1310,7 +1322,7 @@
       </c>
     </row>
     <row r="64" spans="1:3" ht="15">
-      <c r="A64" s="12" t="s">
+      <c r="A64" s="11" t="s">
         <v>37</v>
       </c>
       <c r="B64">
@@ -1318,7 +1330,7 @@
       </c>
     </row>
     <row r="65" spans="1:3" ht="15">
-      <c r="A65" s="12" t="s">
+      <c r="A65" s="11" t="s">
         <v>53</v>
       </c>
       <c r="B65">
@@ -1326,7 +1338,7 @@
       </c>
     </row>
     <row r="66" spans="1:3" ht="15">
-      <c r="A66" s="12" t="s">
+      <c r="A66" s="11" t="s">
         <v>30</v>
       </c>
       <c r="B66">
@@ -1334,7 +1346,7 @@
       </c>
     </row>
     <row r="67" spans="1:3" ht="15">
-      <c r="A67" s="12" t="s">
+      <c r="A67" s="11" t="s">
         <v>38</v>
       </c>
       <c r="B67">
@@ -1342,7 +1354,7 @@
       </c>
     </row>
     <row r="68" spans="1:3" ht="15">
-      <c r="A68" s="12" t="s">
+      <c r="A68" s="11" t="s">
         <v>39</v>
       </c>
       <c r="B68">
@@ -1350,10 +1362,10 @@
       </c>
     </row>
     <row r="69" spans="1:3" ht="15">
-      <c r="A69" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="B69" s="6">
+      <c r="A69" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B69" s="5">
         <f>SUM(B61:B68)</f>
         <v>9</v>
       </c>
@@ -1363,17 +1375,17 @@
       </c>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" s="18"/>
+      <c r="A70" s="17"/>
     </row>
     <row r="71" spans="1:3" ht="18">
-      <c r="A71" s="19" t="s">
+      <c r="A71" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="B71" s="3"/>
-      <c r="C71" s="3"/>
+      <c r="B71" s="2"/>
+      <c r="C71" s="2"/>
     </row>
     <row r="72" spans="1:3" ht="15">
-      <c r="A72" s="12" t="s">
+      <c r="A72" s="11" t="s">
         <v>40</v>
       </c>
       <c r="B72">
@@ -1381,7 +1393,7 @@
       </c>
     </row>
     <row r="73" spans="1:3" ht="15">
-      <c r="A73" s="12" t="s">
+      <c r="A73" s="11" t="s">
         <v>54</v>
       </c>
       <c r="B73">
@@ -1389,7 +1401,7 @@
       </c>
     </row>
     <row r="74" spans="1:3" ht="15">
-      <c r="A74" s="12" t="s">
+      <c r="A74" s="11" t="s">
         <v>35</v>
       </c>
       <c r="B74">
@@ -1397,7 +1409,7 @@
       </c>
     </row>
     <row r="75" spans="1:3" ht="15">
-      <c r="A75" s="12" t="s">
+      <c r="A75" s="11" t="s">
         <v>36</v>
       </c>
       <c r="B75">
@@ -1405,7 +1417,7 @@
       </c>
     </row>
     <row r="76" spans="1:3" ht="15">
-      <c r="A76" s="12" t="s">
+      <c r="A76" s="11" t="s">
         <v>30</v>
       </c>
       <c r="B76">
@@ -1413,7 +1425,7 @@
       </c>
     </row>
     <row r="77" spans="1:3" ht="15">
-      <c r="A77" s="12" t="s">
+      <c r="A77" s="11" t="s">
         <v>41</v>
       </c>
       <c r="B77">
@@ -1421,7 +1433,7 @@
       </c>
     </row>
     <row r="78" spans="1:3" ht="15">
-      <c r="A78" s="12" t="s">
+      <c r="A78" s="11" t="s">
         <v>42</v>
       </c>
       <c r="B78">
@@ -1429,13 +1441,13 @@
       </c>
     </row>
     <row r="79" spans="1:3" ht="15">
-      <c r="A79" s="12"/>
+      <c r="A79" s="11"/>
     </row>
     <row r="80" spans="1:3" ht="15">
-      <c r="A80" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B80" s="6">
+      <c r="A80" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B80" s="5">
         <f>SUM(B72:B79)</f>
         <v>7</v>
       </c>
@@ -1460,7 +1472,7 @@
   <dimension ref="A1:J43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1471,78 +1483,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>78</v>
       </c>
+      <c r="B1" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="2" spans="1:10" ht="16">
-      <c r="D2" s="2" t="s">
+      <c r="B2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="16">
-      <c r="B4" s="1"/>
+      <c r="B3" s="14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="B4" s="13" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="5" spans="1:10" ht="15">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="B5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="12">
         <f>C18+C36+C42</f>
         <v>0</v>
       </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
     </row>
     <row r="6" spans="1:10" ht="15">
-      <c r="C6" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="13">
+      <c r="B6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="12">
         <f>B18+B36+B42</f>
         <v>80</v>
       </c>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
     </row>
     <row r="9" spans="1:10" ht="18">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3" t="s">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="3" t="s">
+      <c r="C9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="30">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="6">
         <v>15</v>
       </c>
-      <c r="C13" s="7"/>
+      <c r="C13" s="6"/>
     </row>
     <row r="14" spans="1:10" ht="15">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="8" t="s">
         <v>56</v>
       </c>
       <c r="B14">
@@ -1550,7 +1579,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="15">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="8" t="s">
         <v>57</v>
       </c>
       <c r="B15">
@@ -1558,7 +1587,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="15">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="8" t="s">
         <v>58</v>
       </c>
       <c r="B16">
@@ -1566,14 +1595,14 @@
       </c>
     </row>
     <row r="17" spans="1:3" ht="15">
-      <c r="A17" s="11"/>
-      <c r="B17" s="6"/>
+      <c r="A17" s="10"/>
+      <c r="B17" s="5"/>
     </row>
     <row r="18" spans="1:3" ht="15">
-      <c r="A18" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B18" s="6">
+      <c r="A18" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="5">
         <f>SUM(B13:B17)</f>
         <v>27</v>
       </c>
@@ -1583,14 +1612,14 @@
       </c>
     </row>
     <row r="20" spans="1:3" ht="18">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
     </row>
     <row r="21" spans="1:3" ht="15">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="8" t="s">
         <v>59</v>
       </c>
       <c r="B21">
@@ -1598,7 +1627,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" ht="15">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="8" t="s">
         <v>60</v>
       </c>
       <c r="B22">
@@ -1606,7 +1635,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="15">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="8" t="s">
         <v>61</v>
       </c>
       <c r="B23">
@@ -1614,7 +1643,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" ht="15">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="8" t="s">
         <v>62</v>
       </c>
       <c r="B24">
@@ -1622,7 +1651,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" ht="15">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="8" t="s">
         <v>63</v>
       </c>
       <c r="B25">
@@ -1630,7 +1659,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" ht="15">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="8" t="s">
         <v>64</v>
       </c>
       <c r="B26">
@@ -1638,7 +1667,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" ht="15">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="8" t="s">
         <v>65</v>
       </c>
       <c r="B27">
@@ -1646,7 +1675,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" ht="15">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="8" t="s">
         <v>67</v>
       </c>
       <c r="B28">
@@ -1654,7 +1683,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" ht="15">
-      <c r="A29" s="9" t="s">
+      <c r="A29" s="8" t="s">
         <v>66</v>
       </c>
       <c r="B29">
@@ -1662,7 +1691,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" ht="15">
-      <c r="A30" s="9" t="s">
+      <c r="A30" s="8" t="s">
         <v>68</v>
       </c>
       <c r="B30">
@@ -1670,7 +1699,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" ht="15">
-      <c r="A31" s="9" t="s">
+      <c r="A31" s="8" t="s">
         <v>69</v>
       </c>
       <c r="B31">
@@ -1678,7 +1707,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" ht="15">
-      <c r="A32" s="9" t="s">
+      <c r="A32" s="8" t="s">
         <v>70</v>
       </c>
       <c r="B32">
@@ -1686,7 +1715,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" ht="15">
-      <c r="A33" s="9" t="s">
+      <c r="A33" s="8" t="s">
         <v>72</v>
       </c>
       <c r="B33">
@@ -1694,7 +1723,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" ht="15">
-      <c r="A34" s="9" t="s">
+      <c r="A34" s="8" t="s">
         <v>71</v>
       </c>
       <c r="B34">
@@ -1702,13 +1731,13 @@
       </c>
     </row>
     <row r="35" spans="1:3" ht="15">
-      <c r="A35" s="9"/>
+      <c r="A35" s="8"/>
     </row>
     <row r="36" spans="1:3" ht="15">
-      <c r="A36" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B36" s="6">
+      <c r="A36" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B36" s="5">
         <f>SUM(B21:B35)</f>
         <v>41</v>
       </c>
@@ -1718,18 +1747,18 @@
       </c>
     </row>
     <row r="37" spans="1:3" ht="15">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6"/>
+      <c r="A37" s="4"/>
+      <c r="B37" s="5"/>
     </row>
     <row r="38" spans="1:3" ht="18">
-      <c r="A38" s="8" t="s">
+      <c r="A38" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
     </row>
     <row r="39" spans="1:3" ht="15">
-      <c r="A39" s="9" t="s">
+      <c r="A39" s="8" t="s">
         <v>73</v>
       </c>
       <c r="B39">
@@ -1737,7 +1766,7 @@
       </c>
     </row>
     <row r="40" spans="1:3" ht="15">
-      <c r="A40" s="9" t="s">
+      <c r="A40" s="8" t="s">
         <v>74</v>
       </c>
       <c r="B40">
@@ -1745,13 +1774,13 @@
       </c>
     </row>
     <row r="41" spans="1:3" ht="15">
-      <c r="A41" s="11"/>
+      <c r="A41" s="10"/>
     </row>
     <row r="42" spans="1:3" ht="15">
-      <c r="A42" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B42" s="6">
+      <c r="A42" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B42" s="5">
         <f>SUM(B39:B41)</f>
         <v>12</v>
       </c>
@@ -1761,8 +1790,8 @@
       </c>
     </row>
     <row r="43" spans="1:3" ht="15">
-      <c r="A43" s="5"/>
-      <c r="B43" s="6"/>
+      <c r="A43" s="4"/>
+      <c r="B43" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
